--- a/examples/dotnet/weatherit/src/weatherit.code.gen/Data/wi.code.gen_WeatherIt_0001_1001_1001.xlsx
+++ b/examples/dotnet/weatherit/src/weatherit.code.gen/Data/wi.code.gen_WeatherIt_0001_1001_1001.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewjoughin/code/aa/sourcedynamo/examples/dotnet/weatherit/src/weatherit.code.gen/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewjoughin/code/aa/sourcedynamo/examples/dotnet/weatherit/src/weatherit.code.gen/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9480226-9E26-4241-85BC-EE927744378C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8408F81-BAC3-7940-A81A-2FB6B8DD4B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51880" yWindow="500" windowWidth="50520" windowHeight="57100" xr2:uid="{707003A8-A50D-684A-9161-DABDB469CB19}"/>
+    <workbookView xWindow="32000" yWindow="17300" windowWidth="38400" windowHeight="23500" activeTab="1" xr2:uid="{707003A8-A50D-684A-9161-DABDB469CB19}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
     <sheet name="ModelProperty" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -270,9 +270,9 @@
     <tableColumn id="2" xr3:uid="{43FB4C35-03E1-BE45-BEE7-55A8F1DFA246}" name="ModelCode"/>
     <tableColumn id="3" xr3:uid="{3373CDEC-03EF-3D49-963E-CD54A53A99CB}" name="ModelDisplayName"/>
     <tableColumn id="10" xr3:uid="{BC633840-3E4F-354E-B2AC-B11656C97753}" name="DisplayOrder"/>
-    <tableColumn id="6" xr3:uid="{FF7738F7-A82A-7943-B9AE-D21E4CB54309}" name="HasController" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{5A9F1447-0FB7-0C4E-A5FF-8D7E41A26329}" name="HasView" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{BFA87EF0-C90B-9E41-997B-99DE80611B6A}" name="HasMenuItem" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{FF7738F7-A82A-7943-B9AE-D21E4CB54309}" name="HasController" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{5A9F1447-0FB7-0C4E-A5FF-8D7E41A26329}" name="HasView" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{BFA87EF0-C90B-9E41-997B-99DE80611B6A}" name="HasMenuItem" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium25" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -285,11 +285,11 @@
     <tableColumn id="1" xr3:uid="{49867AEE-3650-834A-A6E6-953F99CA316D}" name="Guid"/>
     <tableColumn id="2" xr3:uid="{369912E0-B3DC-2C41-A497-7E3AD02F507F}" name="ModelPropertyCode"/>
     <tableColumn id="3" xr3:uid="{2725CB06-A002-6541-A229-B76CB55197FC}" name="ModelCode"/>
-    <tableColumn id="5" xr3:uid="{6F6D3D1B-9D26-9842-A8FC-1A7B48EF4A10}" name="DisplayName" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{6F6D3D1B-9D26-9842-A8FC-1A7B48EF4A10}" name="DisplayName" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{15A8045D-1C76-3D4F-8D3B-11D29FE79730}" name="DisplayOrder"/>
     <tableColumn id="7" xr3:uid="{EE317BF5-C23F-8A45-BECF-C84AF2E1F025}" name="DisplayFormatExpression"/>
     <tableColumn id="9" xr3:uid="{3D19CF32-2C08-8544-80E0-2FA4FBF0CA6B}" name="DataType"/>
-    <tableColumn id="10" xr3:uid="{34D8AAF0-F41D-0D49-85CF-D58B7E14AC0C}" name="IsGenerated" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{34D8AAF0-F41D-0D49-85CF-D58B7E14AC0C}" name="IsGenerated" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium25" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -594,7 +594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA20F649-3214-1144-80E3-E9E5AF71D2AD}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -669,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F1DD65C-CE5D-A047-93CF-4047A05BE8C4}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/examples/dotnet/weatherit/src/weatherit.code.gen/Data/wi.code.gen_WeatherIt_0001_1001_1001.xlsx
+++ b/examples/dotnet/weatherit/src/weatherit.code.gen/Data/wi.code.gen_WeatherIt_0001_1001_1001.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewjoughin/code/aa/sourcedynamo/examples/dotnet/weatherit/src/weatherit.code.gen/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8408F81-BAC3-7940-A81A-2FB6B8DD4B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BCE778-15D5-9647-ABE0-C73B7FB3D8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32000" yWindow="17300" windowWidth="38400" windowHeight="23500" activeTab="1" xr2:uid="{707003A8-A50D-684A-9161-DABDB469CB19}"/>
+    <workbookView xWindow="32000" yWindow="17300" windowWidth="38400" windowHeight="23500" activeTab="2" xr2:uid="{707003A8-A50D-684A-9161-DABDB469CB19}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
   <si>
     <t>SystemCode</t>
   </si>
@@ -76,9 +76,6 @@
     <t>true</t>
   </si>
   <si>
-    <t>ModelDisplayName</t>
-  </si>
-  <si>
     <t>DisplayName</t>
   </si>
   <si>
@@ -88,9 +85,6 @@
     <t>HasController</t>
   </si>
   <si>
-    <t>HasView</t>
-  </si>
-  <si>
     <t>HasMenuItem</t>
   </si>
   <si>
@@ -167,6 +161,15 @@
   </si>
   <si>
     <t>9A2CB4EA-32D7-4542-9EB9-7A095728CE7E</t>
+  </si>
+  <si>
+    <t>HasPage</t>
+  </si>
+  <si>
+    <t>Weather Forecasts</t>
+  </si>
+  <si>
+    <t>MultipleDisplayName</t>
   </si>
 </sst>
 </file>
@@ -263,15 +266,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{87780319-93E2-8542-87DA-710E497B3EBF}" name="Table2" displayName="Table2" ref="A1:G18" totalsRowShown="0">
-  <autoFilter ref="A1:G18" xr:uid="{87780319-93E2-8542-87DA-710E497B3EBF}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{87780319-93E2-8542-87DA-710E497B3EBF}" name="Table2" displayName="Table2" ref="A1:H18" totalsRowShown="0">
+  <autoFilter ref="A1:H18" xr:uid="{87780319-93E2-8542-87DA-710E497B3EBF}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{4CE40CA5-4089-3B4C-9F08-43CA4E78D054}" name="Guid"/>
     <tableColumn id="2" xr3:uid="{43FB4C35-03E1-BE45-BEE7-55A8F1DFA246}" name="ModelCode"/>
-    <tableColumn id="3" xr3:uid="{3373CDEC-03EF-3D49-963E-CD54A53A99CB}" name="ModelDisplayName"/>
+    <tableColumn id="3" xr3:uid="{3373CDEC-03EF-3D49-963E-CD54A53A99CB}" name="DisplayName"/>
+    <tableColumn id="4" xr3:uid="{61C4255E-E86C-7546-AD9C-F2F09B7F9D01}" name="MultipleDisplayName"/>
     <tableColumn id="10" xr3:uid="{BC633840-3E4F-354E-B2AC-B11656C97753}" name="DisplayOrder"/>
     <tableColumn id="6" xr3:uid="{FF7738F7-A82A-7943-B9AE-D21E4CB54309}" name="HasController" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{5A9F1447-0FB7-0C4E-A5FF-8D7E41A26329}" name="HasView" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{5A9F1447-0FB7-0C4E-A5FF-8D7E41A26329}" name="HasPage" dataDxfId="3"/>
     <tableColumn id="8" xr3:uid="{BFA87EF0-C90B-9E41-997B-99DE80611B6A}" name="HasMenuItem" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium25" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -667,10 +671,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F1DD65C-CE5D-A047-93CF-4047A05BE8C4}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -678,60 +682,68 @@
     <col min="1" max="1" width="36.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="1"/>
-    <col min="7" max="7" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2">
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2">
         <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -742,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB9C199-394C-7049-A96B-18089740CE91}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -760,51 +772,51 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
         <v>33</v>
-      </c>
-      <c r="G2" t="s">
-        <v>35</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>11</v>
@@ -812,22 +824,22 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>11</v>
@@ -835,45 +847,45 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>11</v>
@@ -881,6 +893,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/examples/dotnet/weatherit/src/weatherit.code.gen/Data/wi.code.gen_WeatherIt_0001_1001_1001.xlsx
+++ b/examples/dotnet/weatherit/src/weatherit.code.gen/Data/wi.code.gen_WeatherIt_0001_1001_1001.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewjoughin/code/aa/sourcedynamo/examples/dotnet/weatherit/src/weatherit.code.gen/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BCE778-15D5-9647-ABE0-C73B7FB3D8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5B8C79-AB7D-4548-A91D-922C9D7EA495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32000" yWindow="17300" windowWidth="38400" windowHeight="23500" activeTab="2" xr2:uid="{707003A8-A50D-684A-9161-DABDB469CB19}"/>
+    <workbookView xWindow="32000" yWindow="17300" windowWidth="38400" windowHeight="23500" activeTab="1" xr2:uid="{707003A8-A50D-684A-9161-DABDB469CB19}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -673,7 +673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F1DD65C-CE5D-A047-93CF-4047A05BE8C4}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -754,7 +754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB9C199-394C-7049-A96B-18089740CE91}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>

--- a/examples/dotnet/weatherit/src/weatherit.code.gen/Data/wi.code.gen_WeatherIt_0001_1001_1001.xlsx
+++ b/examples/dotnet/weatherit/src/weatherit.code.gen/Data/wi.code.gen_WeatherIt_0001_1001_1001.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewjoughin/code/aa/sourcedynamo/examples/dotnet/weatherit/src/weatherit.code.gen/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5B8C79-AB7D-4548-A91D-922C9D7EA495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4C957A-7F24-8949-985F-2C7B72565C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32000" yWindow="17300" windowWidth="38400" windowHeight="23500" activeTab="1" xr2:uid="{707003A8-A50D-684A-9161-DABDB469CB19}"/>
+    <workbookView xWindow="32000" yWindow="17300" windowWidth="38400" windowHeight="23500" xr2:uid="{707003A8-A50D-684A-9161-DABDB469CB19}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -598,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA20F649-3214-1144-80E3-E9E5AF71D2AD}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -673,7 +673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F1DD65C-CE5D-A047-93CF-4047A05BE8C4}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>

--- a/examples/dotnet/weatherit/src/weatherit.code.gen/Data/wi.code.gen_WeatherIt_0001_1001_1001.xlsx
+++ b/examples/dotnet/weatherit/src/weatherit.code.gen/Data/wi.code.gen_WeatherIt_0001_1001_1001.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewjoughin/code/aa/sourcedynamo/examples/dotnet/weatherit/src/weatherit.code.gen/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4C957A-7F24-8949-985F-2C7B72565C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AB40D5-CE0C-3C40-AD96-A22CC3754AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32000" yWindow="17300" windowWidth="38400" windowHeight="23500" xr2:uid="{707003A8-A50D-684A-9161-DABDB469CB19}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="2" xr2:uid="{707003A8-A50D-684A-9161-DABDB469CB19}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -176,8 +176,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -205,9 +213,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA20F649-3214-1144-80E3-E9E5AF71D2AD}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -673,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F1DD65C-CE5D-A047-93CF-4047A05BE8C4}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -754,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB9C199-394C-7049-A96B-18089740CE91}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -864,7 +873,7 @@
       <c r="G4" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/examples/dotnet/weatherit/src/weatherit.code.gen/Data/wi.code.gen_WeatherIt_0001_1001_1001.xlsx
+++ b/examples/dotnet/weatherit/src/weatherit.code.gen/Data/wi.code.gen_WeatherIt_0001_1001_1001.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewjoughin/code/aa/sourcedynamo/examples/dotnet/weatherit/src/weatherit.code.gen/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AB40D5-CE0C-3C40-AD96-A22CC3754AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DA3527-3BB2-F044-B73B-FE876B52E1C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="2" xr2:uid="{707003A8-A50D-684A-9161-DABDB469CB19}"/>
   </bookViews>
@@ -764,7 +764,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -773,10 +773,10 @@
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
     <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25" customWidth="1"/>
-    <col min="8" max="8" width="25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">

--- a/examples/dotnet/weatherit/src/weatherit.code.gen/Data/wi.code.gen_WeatherIt_0001_1001_1001.xlsx
+++ b/examples/dotnet/weatherit/src/weatherit.code.gen/Data/wi.code.gen_WeatherIt_0001_1001_1001.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewjoughin/code/aa/sourcedynamo/examples/dotnet/weatherit/src/weatherit.code.gen/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DA3527-3BB2-F044-B73B-FE876B52E1C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CFD3E4-2297-F14B-8849-A194ADC80B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="2" xr2:uid="{707003A8-A50D-684A-9161-DABDB469CB19}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="23500" activeTab="2" xr2:uid="{707003A8-A50D-684A-9161-DABDB469CB19}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -193,12 +193,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -213,10 +219,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -683,7 +691,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -772,7 +780,7 @@
     <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.1640625" customWidth="1"/>
     <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
@@ -854,26 +862,26 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>3</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="4" t="s">
         <v>32</v>
       </c>
     </row>

--- a/examples/dotnet/weatherit/src/weatherit.code.gen/Data/wi.code.gen_WeatherIt_0001_1001_1001.xlsx
+++ b/examples/dotnet/weatherit/src/weatherit.code.gen/Data/wi.code.gen_WeatherIt_0001_1001_1001.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewjoughin/code/aa/sourcedynamo/examples/dotnet/weatherit/src/weatherit.code.gen/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CFD3E4-2297-F14B-8849-A194ADC80B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFBA24A-2234-C54E-BA2C-D1042AC8D86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="23500" activeTab="2" xr2:uid="{707003A8-A50D-684A-9161-DABDB469CB19}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="102400" windowHeight="57100" activeTab="2" xr2:uid="{707003A8-A50D-684A-9161-DABDB469CB19}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -193,18 +193,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -222,9 +216,9 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -772,7 +766,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
